--- a/biology/Botanique/Zingiber_zerumbet/Zingiber_zerumbet.xlsx
+++ b/biology/Botanique/Zingiber_zerumbet/Zingiber_zerumbet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zérumbet (Zingiber zerumbet ; syn. Zingiber aromaticum Valeton, (1918) ; Amomum zerumbet L.) est une plante herbacée du genre Zingiber de la famille des Zingiberaceae originaire d'Asie. 
-Ses noms communs en français sont aussi l'amome sauvage et le gingembre shampooing[2]. Il est connu au Cambodge sous le nom de phteu (ផ្ទឺ)[2].
+Ses noms communs en français sont aussi l'amome sauvage et le gingembre shampooing. Il est connu au Cambodge sous le nom de phteu (ផ្ទឺ).
 Sa vigoureuse tige feuillue peut atteindre 1,20 de haut. Son rhizome est utilisé en cuisine, comme épice ou en hors-d'œuvre. 
-En médecine traditionnelle, particulièrement en Malaisie[3], l'extrait de rhizome est utilisé pour traiter plusieurs types d'affections (maladies inflammatoires et douloureuses, vers intestinaux et diarrhée).
+En médecine traditionnelle, particulièrement en Malaisie, l'extrait de rhizome est utilisé pour traiter plusieurs types d'affections (maladies inflammatoires et douloureuses, vers intestinaux et diarrhée).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autant les feuilles que les inflorescences coniques poussent à partir des rhizomes souterrains.
 Les feuilles sont vertes et alternées.
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,9 +593,11 @@
           <t>Synonymes, Sous Espèces et leurs synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Amomum sylvestre Lam., Encycl. 1: 134 (1783), nom. superfl.
 Amomum zerumbet L., Sp. Pl.: 1 (1753).
 Zingiber sylvestre Garsault, Fig. Pl. Méd.: t. 34b (1764), opus utique oppr.
@@ -624,7 +642,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jus peut être utilisé pour étancher la soif lors de marches en forêt et peut être combiné avec du Jambosier rouge comme  repas.
 </t>
@@ -655,14 +675,16 @@
           <t>Usage Medicinal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>À Hawaii les rhizomes frais et épicés sont pilonnés et utilisés comme médicament contre l'indigestion et autres affections.
 Les rhizomes peuvent être placés dans un endroit frais et sombre pour les garder en vue d'une utilisation ultérieure.
 Traditionnellement les rhizomes étaient moulus dans un mortier avec un pilon puis mélangés avec un fruit mûr de Noni afin de traiter les entorses graves. La pulpe était placée dans un linge et liée de façon lâche autour de la zone blessée.
 Pour un mal de dent ou une Carie, le rhizome cuit et attendri de "Zingiber zerumbet" était pressé et laissé le temps nécessaire à l'intérieur de la cavité.
 Afin de calmer une douleur stomacale, on buvait le jus extrait du rhizome moulu mélangé à de l'eau. De la même manière le rhizome de Gingembre (Zingiber officinale) est beaucoup cultivé et consommé, ou bien bu sous forme de thé afin de traiter l'indigestion ou pour augmenter la circulation sanguine et afin d'augmenter la sensation de bien-être.
-Lors d'une étude in vitro, on a trouvé qu'un extrait du Zingiber zerumbet smith, la "Zerumbone", pourrait induire l'apoptose, ou mort cellulaire programmée, dans les cellules cancéreuses du foie humain.  ([1] (Cancer Cell International, April 3, 2007).</t>
+Lors d'une étude in vitro, on a trouvé qu'un extrait du Zingiber zerumbet smith, la "Zerumbone", pourrait induire l'apoptose, ou mort cellulaire programmée, dans les cellules cancéreuses du foie humain.  ( (Cancer Cell International, April 3, 2007).</t>
         </is>
       </c>
     </row>
@@ -690,7 +712,9 @@
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On dit que le Zingiber zerumbet serait une des multiples formes Kinolau de la déité de Hawaï, Kane
 </t>
@@ -721,7 +745,9 @@
           <t>Pratiques Indigènes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les feuilles et les pétioles, qui sont également odorants, sont utilisés dans les fours hawaïens pour améliorer les arômes de la viande de porc et des poissons lors de la cuisson.
 Traditionnellement les rhizomes étaient tranchés, séchés puis pilonnés pour en faire une poudre, puis mis entre les plis des vêtements, Kapa (Tapa).
